--- a/CS320-Sp22-TutoringSchedule.xlsx
+++ b/CS320-Sp22-TutoringSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs320-spring2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71544776-BB5E-4D95-AFED-9ED9D52776D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D8C45-34A8-433B-B4EC-11F7E6DE5720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1608" yWindow="294" windowWidth="20844" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="150" windowWidth="20844" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
   <si>
     <t>Monday (in class)</t>
   </si>
@@ -81,10 +81,29 @@
     <t>CS320: Software Engineering Tutoring Schedule (starts TBD)</t>
   </si>
   <si>
-    <t>??? is serving as the version control tutor for CS320, as they have extensive experience with Git, GitHub, and setting up version control for teams</t>
-  </si>
-  <si>
     <t>By Appointment Only (teams to arrange with TBD)</t>
+  </si>
+  <si>
+    <t>Eric Bosse</t>
+  </si>
+  <si>
+    <t>Tyler Franks</t>
+  </si>
+  <si>
+    <t>David McHugh</t>
+  </si>
+  <si>
+    <t>Mikayla Trost</t>
+  </si>
+  <si>
+    <t>Le Quient Lewis</t>
+  </si>
+  <si>
+    <t>By
+Appt</t>
+  </si>
+  <si>
+    <t>David and Tyler will be serving as the version control tutors for CS320, as they have extensive experience with Git, GitHub, and setting up version control for teams</t>
   </si>
 </sst>
 </file>
@@ -136,7 +155,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +168,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -178,232 +203,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thick">
         <color auto="1"/>
       </top>
@@ -548,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -579,79 +378,59 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,25 +440,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,7 +797,7 @@
   <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1045,20 +821,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.75">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -1074,20 +850,20 @@
       <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -1133,23 +909,23 @@
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1200,79 +976,130 @@
       </c>
     </row>
     <row r="6" spans="1:25" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="21"/>
-      <c r="B6" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="15"/>
+      <c r="A6" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="38"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="15"/>
+      <c r="F6" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="38"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="51"/>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="1:25" s="4" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="21"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
+      <c r="J6" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="38"/>
+    </row>
+    <row r="7" spans="1:25" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A7" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
+      <c r="F7" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>8</v>
+      </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="1:25" s="4" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A8" s="21"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
+      <c r="J7" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A8" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>8</v>
+      </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>8</v>
+      </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" spans="1:25" s="4" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A9" s="21"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="42" t="s">
+        <v>8</v>
+      </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="42" t="s">
+        <v>8</v>
+      </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="1:25" s="4" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A10" s="22"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="52"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="52"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="52"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -1280,13 +1107,15 @@
       <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1300,76 +1129,92 @@
       <c r="A14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:25" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A15" s="26">
+      <c r="A15" s="37" t="str">
         <f>A6</f>
-        <v>0</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:25" s="4" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A16" s="21">
+        <v>Eric Bosse</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A16" s="37" t="str">
         <f>A7</f>
-        <v>0</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" s="4" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A17" s="23">
-        <f>A8</f>
-        <v>0</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" s="4" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="21">
+        <v>Tyler Franks</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A18" s="37" t="str">
         <f>A9</f>
-        <v>0</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" s="4" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A19" s="22">
-        <f>A10</f>
-        <v>0</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="5"/>
+        <v>Mikayla Trost</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:16" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.6"/>
     <row r="21" spans="1:16" s="4" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
@@ -1386,19 +1231,19 @@
       <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:16" s="4" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
+      <c r="B22" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1406,68 +1251,72 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:16" s="4" customFormat="1" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
+      <c r="B23" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:16" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A24" s="29"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
+      <c r="A24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:16" s="4" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A25" s="30"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
+      <c r="A25" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -1476,6 +1325,7 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/CS320-Sp22-TutoringSchedule.xlsx
+++ b/CS320-Sp22-TutoringSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs320-spring2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D8C45-34A8-433B-B4EC-11F7E6DE5720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B024A002-E9C0-499F-9ED6-E3097FBEFA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1230" yWindow="150" windowWidth="20844" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CS320-Sp22-TutoringSchedule.xlsx
+++ b/CS320-Sp22-TutoringSchedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs320-spring2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B024A002-E9C0-499F-9ED6-E3097FBEFA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F6C81F-4361-4FEC-8140-A68F4BE75875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="150" windowWidth="20844" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2568" yWindow="228" windowWidth="19032" windowHeight="11784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,55 +391,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,13 +400,62 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,6 +794,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -821,20 +824,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="9" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -850,20 +853,20 @@
       <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -909,23 +912,23 @@
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -976,130 +979,130 @@
       </c>
     </row>
     <row r="6" spans="1:25" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="38"/>
+      <c r="B6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="21"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="38"/>
+      <c r="F6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="21"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="38"/>
+      <c r="J6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:25" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="42" t="s">
+      <c r="B7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="42" t="s">
+      <c r="F7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="24" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="42" t="s">
+      <c r="J7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:25" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="42" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="42" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="42" t="s">
+      <c r="J8" s="21"/>
+      <c r="K8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:25" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="42" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="42" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="24" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="42" t="s">
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="38"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -1107,13 +1110,13 @@
       <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="41" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="3"/>
@@ -1141,80 +1144,80 @@
       <c r="E14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="41"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:25" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A15" s="37" t="str">
+      <c r="A15" s="20" t="str">
         <f>A6</f>
         <v>Eric Bosse</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="42" t="s">
+      <c r="B15" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A16" s="37" t="str">
+      <c r="A16" s="20" t="str">
         <f>A7</f>
         <v>Tyler Franks</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="42" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="42" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="37" t="str">
+      <c r="A18" s="20" t="str">
         <f>A9</f>
         <v>Mikayla Trost</v>
       </c>
-      <c r="B18" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="36"/>
+      <c r="B18" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:16" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="36"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.6"/>
     <row r="21" spans="1:16" s="4" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
@@ -1234,16 +1237,16 @@
       <c r="A22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1254,42 +1257,42 @@
       <c r="A23" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
     </row>
     <row r="24" spans="1:16" s="4" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
     </row>
     <row r="25" spans="1:16" s="4" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="O25" s="5"/>
@@ -1328,7 +1331,7 @@
     <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="98" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
